--- a/conditions/SocaMRIConditions_Version1A_Run2.xlsx
+++ b/conditions/SocaMRIConditions_Version1A_Run2.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/Rejection_induction/conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\Rejection_induction\conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1215" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -134,9 +131,6 @@
     <t>stim/Male_Creative_Commons_Freeimages_18.jpg</t>
   </si>
   <si>
-    <t>stim/Silk_Rudick_F25_edited.jpg</t>
-  </si>
-  <si>
     <t>stim/Silk_Rudick_F28_edited.jpg</t>
   </si>
   <si>
@@ -162,13 +156,16 @@
   </si>
   <si>
     <t>stim/WWmale23-7happy_edited.jpg</t>
+  </si>
+  <si>
+    <t>stim/Silk_Rudick_F31_edited.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -606,16 +606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -659,7 +659,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -703,7 +703,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -758,7 +758,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -780,7 +780,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -802,7 +802,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -835,7 +835,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -934,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,20 +946,20 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -968,9 +968,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -979,20 +979,20 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1001,31 +1001,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1034,7 +1034,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1045,9 +1045,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -1056,9 +1056,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
